--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_0_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_0_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06551484234720861</v>
+        <v>0.03842527030919274</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06551484234720861</v>
+        <v>0.03842527030919274</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.994235500104573</v>
+        <v>7.141271080794628</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.6017050614535826, 14.590176061662728]</t>
+          <t>[-0.07925369504240187, 14.361795856631657]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07021910001177689</v>
+        <v>0.05246022008588613</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07021910001177689</v>
+        <v>0.05246022008588613</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.276789871070081</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.289448291629663, 0.735868549489501]</t>
+          <t>[-3.1195794918529276, 1.4843160485429254]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1349705945273227</v>
+        <v>0.4780625111959962</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1349705945273227</v>
+        <v>0.4780625111959962</v>
       </c>
       <c r="T2" t="n">
-        <v>13.35250606959274</v>
+        <v>12.35775680271132</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.257381380631863, 17.447630758553608]</t>
+          <t>[8.405081507977929, 16.310432097444707]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.47909453971107e-08</v>
+        <v>1.130209545951999e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.47909453971107e-08</v>
+        <v>1.130209545951999e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>9.269229229229435</v>
+        <v>3.382082082082164</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.995855855855922</v>
+        <v>-6.139779779779927</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.53431431431479</v>
+        <v>12.90394394394425</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1049816270018571</v>
+        <v>0.2064319267337758</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1049816270018571</v>
+        <v>0.2064319267337758</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.927423298225611</v>
+        <v>6.51416860119548</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.4283270158703907, 17.28317361232161]</t>
+          <t>[-3.0829289790402674, 16.111266181431226]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09478689569509657</v>
+        <v>0.1783841777821056</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09478689569509657</v>
+        <v>0.1783841777821056</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.075526678047311</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.257974427387968, 0.10692107129334616]</t>
+          <t>[-4.956106128185699, 0.9308422677303092]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.06180556726740005</v>
+        <v>0.175273598113558</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06180556726740005</v>
+        <v>0.175273598113558</v>
       </c>
       <c r="T3" t="n">
-        <v>13.51627728617544</v>
+        <v>16.49033631332604</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.316194030905914, 18.716360541444963]</t>
+          <t>[11.322212282001196, 21.658460344650884]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.188542898964087e-06</v>
+        <v>7.250254374646659e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.188542898964087e-06</v>
+        <v>7.250254374646659e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>8.449849849850036</v>
+        <v>8.325125125125322</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.4352952952953029</v>
+        <v>-3.850370370370465</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.33499499499538</v>
+        <v>20.50062062062111</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3608182898703404</v>
+        <v>0.3011618927652202</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3608182898703404</v>
+        <v>0.3011618927652202</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.752053787817424</v>
+        <v>4.185561313134684</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.9696640808974983, 13.473771656532346]</t>
+          <t>[-2.6761543838370656, 11.047277010106434]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2783084569294474</v>
+        <v>0.2256166798333348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2783084569294474</v>
+        <v>0.2256166798333348</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.062947728483388</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.195106169900239, 1.0692107129334634]</t>
+          <t>[-1.7296055650394244, 4.484395519538584]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1913479737579042</v>
+        <v>0.3766652765878722</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1913479737579042</v>
+        <v>0.3766652765878722</v>
       </c>
       <c r="T4" t="n">
-        <v>10.4127724959922</v>
+        <v>14.03789296946483</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.703778453473946, 15.121766538510448]</t>
+          <t>[10.136958884625038, 17.938827054304618]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.529134340931385e-05</v>
+        <v>4.376023099439408e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>5.529134340931385e-05</v>
+        <v>4.376023099439408e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>8.398638638638822</v>
+        <v>20.29249249249298</v>
       </c>
       <c r="Y4" t="n">
-        <v>-4.352952952953048</v>
+        <v>7.440580580580757</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.15023023023069</v>
+        <v>33.14440440440519</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5469840033130149</v>
+        <v>0.01459907808970407</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5469840033130149</v>
+        <v>0.01459907808970407</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>3.178133159838573</v>
+        <v>9.458929849244036</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.466930503292952, 10.823196822970099]</t>
+          <t>[1.012901441902546, 17.904958256585527]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.4068578562988168</v>
+        <v>0.02900149984792888</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4068578562988168</v>
+        <v>0.02900149984792888</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.861684535460618</v>
+        <v>-2.339684618889696</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.993842976877469, 1.2704739059562318]</t>
+          <t>[-3.069263693597235, -1.6101055441821561]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2375214040833198</v>
+        <v>6.487163228818815e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2375214040833198</v>
+        <v>6.487163228818815e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>11.14301742230515</v>
+        <v>12.56652179813175</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.975412063449745, 15.31062278116055]</t>
+          <t>[8.238899080893091, 16.8941445153704]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.526806515135149e-06</v>
+        <v>5.237367997068532e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.526806515135149e-06</v>
+        <v>5.237367997068532e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>7.579259259259427</v>
+        <v>9.677957957958188</v>
       </c>
       <c r="Y5" t="n">
-        <v>-5.172332332332441</v>
+        <v>6.660100100100259</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.3308508508513</v>
+        <v>12.69581581581612</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3688509262736014</v>
+        <v>0.3771003798725021</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3688509262736014</v>
+        <v>0.3771003798725021</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.836842422579206</v>
+        <v>5.364018756012653</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.728793381223076, 14.402478226381488]</t>
+          <t>[-4.098815646394037, 14.826853158419343]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3139195205147269</v>
+        <v>0.2596190439491675</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3139195205147269</v>
+        <v>0.2596190439491675</v>
       </c>
       <c r="P6" t="n">
-        <v>2.157289850212811</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9748685912040402, 5.289448291629662]</t>
+          <t>[-6.169974761104277, 0.05660527303765406]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1722061765094434</v>
+        <v>0.05413159631972397</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1722061765094434</v>
+        <v>0.05413159631972397</v>
       </c>
       <c r="T6" t="n">
-        <v>15.06199821771651</v>
+        <v>13.4239734889609</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.104404591698609, 20.01959184373441]</t>
+          <t>[8.215880327175253, 18.63206665074655]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.077145988543805e-07</v>
+        <v>4.851388203608309e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.077145988543805e-07</v>
+        <v>4.851388203608309e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>16.79727727727764</v>
+        <v>12.64378378378409</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.045685685685774</v>
+        <v>-0.2341441441441479</v>
       </c>
       <c r="Z6" t="n">
-        <v>29.54886886886951</v>
+        <v>25.52171171171232</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0261313372438674</v>
+        <v>0.4295349290348131</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0261313372438674</v>
+        <v>0.4295349290348131</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8.742627265197438</v>
+        <v>4.375674926031047</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.29985758765963055, 17.185396942735245]</t>
+          <t>[-4.695237835377536, 13.446587687439628]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.04271216738581507</v>
+        <v>0.3364562214721061</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04271216738581507</v>
+        <v>0.3364562214721061</v>
       </c>
       <c r="P7" t="n">
-        <v>2.597553084950119</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.4277107755052718, 3.767395394394967]</t>
+          <t>[-0.4339737599553466, 5.805185223750509]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.208546075619047e-05</v>
+        <v>0.08978010843072726</v>
       </c>
       <c r="S7" t="n">
-        <v>5.208546075619047e-05</v>
+        <v>0.08978010843072726</v>
       </c>
       <c r="T7" t="n">
-        <v>14.68241189930029</v>
+        <v>13.3440619336396</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.242676512551206, 19.122147286049383]</t>
+          <t>[8.58735822443446, 18.10076564284475]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.251050184616133e-08</v>
+        <v>1.029161593946171e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.251050184616133e-08</v>
+        <v>1.029161593946171e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00488488488521</v>
+        <v>14.88116116116152</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.24224224224247</v>
+        <v>1.977217217217264</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.76752752752796</v>
+        <v>27.78510510510577</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.58000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6536702805786653</v>
+        <v>0.4578176744023924</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6536702805786653</v>
+        <v>0.4578176744023924</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.354244520718177</v>
+        <v>4.369074292875869</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.482128963680057, 13.19061800511641]</t>
+          <t>[-5.298696830459594, 14.036845416211332]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4957219229769292</v>
+        <v>0.3675580774203018</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4957219229769292</v>
+        <v>0.3675580774203018</v>
       </c>
       <c r="P8" t="n">
-        <v>2.35855304323558</v>
+        <v>2.723342580589351</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, 5.497000959434392]</t>
+          <t>[-0.40881586082749877, 5.855501022006201]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1371185952733296</v>
+        <v>0.08672242495145355</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1371185952733296</v>
+        <v>0.08672242495145355</v>
       </c>
       <c r="T8" t="n">
-        <v>16.05463961403945</v>
+        <v>13.45925770166922</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.801494732561089, 21.307784495517808]</t>
+          <t>[8.534808535251624, 18.383706868086808]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.834425142899221e-07</v>
+        <v>1.685508316251472e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.834425142899221e-07</v>
+        <v>1.685508316251472e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>15.97789789789825</v>
+        <v>14.72506506506542</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.200700700700773</v>
+        <v>1.769089089089134</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.75509509509573</v>
+        <v>27.68104104104169</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1007743288861578</v>
+        <v>0.1617660496307021</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1007743288861578</v>
+        <v>0.1617660496307021</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>9.006517930667858</v>
+        <v>6.111705916867909</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.9776903337810765, 18.990726195116792]</t>
+          <t>[-1.991519845642105, 14.214931679377923]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.07589977206779075</v>
+        <v>0.1357327523632554</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07589977206779075</v>
+        <v>0.1357327523632554</v>
       </c>
       <c r="P9" t="n">
-        <v>1.654131867655887</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.10692107129334527, 3.201342664018429]</t>
+          <t>[-0.861658045128733, 3.717079596139275]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.03669177630510334</v>
+        <v>0.2155807568725971</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03669177630510334</v>
+        <v>0.2155807568725971</v>
       </c>
       <c r="T9" t="n">
-        <v>16.14891657757609</v>
+        <v>15.01574619787992</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.342031114265653, 21.95580204088653]</t>
+          <t>[10.560997279713861, 19.47049511604598]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.21554415333236e-06</v>
+        <v>2.095956186387582e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21554415333236e-06</v>
+        <v>2.095956186387582e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>17.52696696696717</v>
+        <v>18.4692692692695</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.6687687687689</v>
+        <v>9.76096096096108</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.38516516516545</v>
+        <v>27.17757757757792</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3301704130486693</v>
+        <v>0.1423436750893533</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3301704130486693</v>
+        <v>0.1423436750893533</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.722144435481384</v>
+        <v>5.830963001689888</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-3.386552307566813, 12.830841178529582]</t>
+          <t>[-2.189852889549062, 13.851778892928838]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.246997703593606</v>
+        <v>0.1500878745694232</v>
       </c>
       <c r="O10" t="n">
-        <v>0.246997703593606</v>
+        <v>0.1500878745694232</v>
       </c>
       <c r="P10" t="n">
-        <v>1.201289683354656</v>
+        <v>2.283079345852042</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8994213841523875, 4.302000750861699]</t>
+          <t>[-0.7987632973091161, 5.3649219890132]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.4392926972077094</v>
+        <v>0.1426559752041294</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4392926972077094</v>
+        <v>0.1426559752041294</v>
       </c>
       <c r="T10" t="n">
-        <v>13.29621139849237</v>
+        <v>11.66064321722349</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.848464611727332, 17.743958185257405]</t>
+          <t>[7.548348878714288, 15.772937555732687]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.905956302257096e-07</v>
+        <v>8.36583017971293e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.905956302257096e-07</v>
+        <v>8.36583017971293e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>19.24156156156179</v>
+        <v>15.21561561561581</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.50135135135144</v>
+        <v>3.492892892892938</v>
       </c>
       <c r="Z10" t="n">
-        <v>30.98177177177214</v>
+        <v>26.93833833833867</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06316946838798621</v>
+        <v>0.06918484791380508</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06316946838798621</v>
+        <v>0.06918484791380508</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>9.118051449890718</v>
+        <v>7.720715015783436</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.33210595569162393, 18.56820885547306]</t>
+          <t>[-0.9756989038542203, 16.417128935421093]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05824797950015181</v>
+        <v>0.08048937885531782</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05824797950015181</v>
+        <v>0.08048937885531782</v>
       </c>
       <c r="P11" t="n">
-        <v>1.427710775505271</v>
+        <v>2.459184639746965</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.018868424345884982, 2.874289975356427]</t>
+          <t>[-0.3018947895341544, 5.220264069028084]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.05293511800382</v>
+        <v>0.07955268140690697</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05293511800382</v>
+        <v>0.07955268140690697</v>
       </c>
       <c r="T11" t="n">
-        <v>14.94350466695145</v>
+        <v>14.690676985093</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.614467935512232, 20.272541398390672]</t>
+          <t>[10.07331660579623, 19.308037364389776]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.037302871154111e-06</v>
+        <v>7.723257167135955e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.037302871154111e-06</v>
+        <v>7.723257167135955e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>18.38426426426448</v>
+        <v>14.54574574574593</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.90708708708724</v>
+        <v>4.043143143143196</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.86144144144172</v>
+        <v>25.04834834834866</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08287496580683429</v>
+        <v>0.2467553678210851</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08287496580683429</v>
+        <v>0.2467553678210851</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.720660497598915</v>
+        <v>6.331573838542631</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.2271369703736337, 14.668457965571465]</t>
+          <t>[-3.487706005034365, 16.150853682119628]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.09544269895216728</v>
+        <v>0.2006576783646885</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09544269895216728</v>
+        <v>0.2006576783646885</v>
       </c>
       <c r="P12" t="n">
-        <v>2.169868799776733</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.6100790538502725, 4.949816653403738]</t>
+          <t>[-0.44655270951926873, 5.792606274186586]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.122934199536251</v>
+        <v>0.09124593069532816</v>
       </c>
       <c r="S12" t="n">
-        <v>0.122934199536251</v>
+        <v>0.09124593069532816</v>
       </c>
       <c r="T12" t="n">
-        <v>11.88551364954298</v>
+        <v>13.10626876755355</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.726409101999689, 16.04461819708627]</t>
+          <t>[7.795430865578904, 18.4171066695282]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.186680965887149e-07</v>
+        <v>1.014881672944945e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>7.186680965887149e-07</v>
+        <v>1.014881672944945e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>15.57423423423442</v>
+        <v>13.7323323323325</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.048528528528585</v>
+        <v>1.866066066066089</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.09993993994026</v>
+        <v>25.59859859859891</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5277380300479633</v>
+        <v>0.1720133354592219</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5277380300479633</v>
+        <v>0.1720133354592219</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.49785049033422</v>
+        <v>6.200054594464074</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.799112069168188, 14.794813049836627]</t>
+          <t>[-2.541621438356385, 14.941730627284533]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.383648889183265</v>
+        <v>0.1600503822395907</v>
       </c>
       <c r="O13" t="n">
-        <v>0.383648889183265</v>
+        <v>0.1600503822395907</v>
       </c>
       <c r="P13" t="n">
-        <v>1.880552959806503</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.2201581077005406, 4.981264027313547]</t>
+          <t>[-0.798763297309117, 5.465553585524585]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.228244370264812</v>
+        <v>0.1404778346629785</v>
       </c>
       <c r="S13" t="n">
-        <v>0.228244370264812</v>
+        <v>0.1404778346629785</v>
       </c>
       <c r="T13" t="n">
-        <v>15.61465613837496</v>
+        <v>15.24601560595342</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[10.01175799914514, 21.217554277604783]</t>
+          <t>[10.638187017146791, 19.85384419476005]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.167504831700583e-06</v>
+        <v>3.213746868624412e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.167504831700583e-06</v>
+        <v>3.213746868624412e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>16.66966966966986</v>
+        <v>15.02422422422441</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.929459459459508</v>
+        <v>3.110110110110147</v>
       </c>
       <c r="Z13" t="n">
-        <v>28.40987987988022</v>
+        <v>26.93833833833867</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.79000000000028</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1128483612391025</v>
+        <v>0.5108404923687053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1128483612391025</v>
+        <v>0.5108404923687053</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.403891479112515</v>
+        <v>3.659067213076744</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.6445461277223128, 14.452329085947342]</t>
+          <t>[-4.054185812435488, 11.372320238588976]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1160291224280205</v>
+        <v>0.3444477344878374</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1160291224280205</v>
+        <v>0.3444477344878374</v>
       </c>
       <c r="P14" t="n">
-        <v>2.094395102393195</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.7232895999255788, 4.9120798047119685]</t>
+          <t>[-1.553500271144503, 4.710816611689199]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1413515990785577</v>
+        <v>0.3154660619721124</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1413515990785577</v>
+        <v>0.3154660619721124</v>
       </c>
       <c r="T14" t="n">
-        <v>11.2760018307816</v>
+        <v>11.41607621422065</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.027986151559716, 15.524017510003485]</t>
+          <t>[6.9654279629558715, 15.86672446548543]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.88115019353441e-06</v>
+        <v>5.278300961419902e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>2.88115019353441e-06</v>
+        <v>5.278300961419902e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>15.86000000000019</v>
+        <v>17.89509509509532</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.191411411411472</v>
+        <v>5.980980980981053</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.5285885885889</v>
+        <v>29.80920920920958</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_0_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_0_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03842527030919274</v>
+        <v>0.1200641337275008</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03842527030919274</v>
+        <v>0.1200641337275008</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.141271080794628</v>
+        <v>6.701534624533894</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.07925369504240187, 14.361795856631657]</t>
+          <t>[-1.5059840772060298, 14.909053326273817]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05246022008588613</v>
+        <v>0.1070339393131805</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05246022008588613</v>
+        <v>0.1070339393131805</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8176317216550011</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.1195794918529276, 1.4843160485429254]</t>
+          <t>[-3.4969479787706206, -0.0503157982556921]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4780625111959962</v>
+        <v>0.04393669376291109</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4780625111959962</v>
+        <v>0.04393669376291109</v>
       </c>
       <c r="T2" t="n">
-        <v>12.35775680271132</v>
+        <v>16.09952839484675</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.405081507977929, 16.310432097444707]</t>
+          <t>[11.454214464003554, 20.744842325689945]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.130209545951999e-07</v>
+        <v>1.089549184207783e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.130209545951999e-07</v>
+        <v>1.089549184207783e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>3.382082082082164</v>
+        <v>7.322402402402574</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.139779779779927</v>
+        <v>0.2077277277277298</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.90394394394425</v>
+        <v>14.43707707707742</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2064319267337758</v>
+        <v>0.02803358615705354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2064319267337758</v>
+        <v>0.02803358615705354</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.51416860119548</v>
+        <v>7.059081184280769</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.0829289790402674, 16.111266181431226]</t>
+          <t>[0.11457109065325, 14.003591277908289]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1783841777821056</v>
+        <v>0.04649030659373432</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1783841777821056</v>
+        <v>0.04649030659373432</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.012631930227695</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.956106128185699, 0.9308422677303092]</t>
+          <t>[-2.6541583579877734, 0.44026323473730855]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.175273598113558</v>
+        <v>0.1565116308304944</v>
       </c>
       <c r="S3" t="n">
-        <v>0.175273598113558</v>
+        <v>0.1565116308304944</v>
       </c>
       <c r="T3" t="n">
-        <v>16.49033631332604</v>
+        <v>10.19978241674194</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[11.322212282001196, 21.658460344650884]</t>
+          <t>[6.4320162131186125, 13.967548620365267]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.250254374646659e-08</v>
+        <v>2.012942501128379e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>7.250254374646659e-08</v>
+        <v>2.012942501128379e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>8.325125125125322</v>
+        <v>4.570010010010119</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.850370370370465</v>
+        <v>-1.817617617617661</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.50062062062111</v>
+        <v>10.9576376376379</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3011618927652202</v>
+        <v>0.2517947207567008</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3011618927652202</v>
+        <v>0.2517947207567008</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>4.185561313134684</v>
+        <v>5.846428529635372</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.6761543838370656, 11.047277010106434]</t>
+          <t>[-3.1714421339007544, 14.864299193171497]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2256166798333348</v>
+        <v>0.1982652312312512</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2256166798333348</v>
+        <v>0.1982652312312512</v>
       </c>
       <c r="P4" t="n">
-        <v>1.37739497724958</v>
+        <v>-2.779947853627004</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.7296055650394244, 4.484395519538584]</t>
+          <t>[-5.918395769825817, 0.35850006257180844]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.3766652765878722</v>
+        <v>0.0811617172421577</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3766652765878722</v>
+        <v>0.0811617172421577</v>
       </c>
       <c r="T4" t="n">
-        <v>14.03789296946483</v>
+        <v>11.42821184465932</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[10.136958884625038, 17.938827054304618]</t>
+          <t>[6.68741483024467, 16.169008859073976]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.376023099439408e-09</v>
+        <v>1.487370796571241e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.376023099439408e-09</v>
+        <v>1.487370796571241e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>20.29249249249298</v>
+        <v>11.47695695695723</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.440580580580757</v>
+        <v>-1.480060060060095</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.14440440440519</v>
+        <v>24.43397397397456</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01459907808970407</v>
+        <v>0.9290345517036989</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01459907808970407</v>
+        <v>0.9290345517036989</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>9.458929849244036</v>
+        <v>1.313751795333858</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[1.012901441902546, 17.904958256585527]</t>
+          <t>[-7.931706817155649, 10.559210407823365]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.02900149984792888</v>
+        <v>0.7760399347956726</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02900149984792888</v>
+        <v>0.7760399347956726</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.339684618889696</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.069263693597235, -1.6101055441821561]</t>
+          <t>[-5.27686934206574, 1.0000264903318863]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.487163228818815e-08</v>
+        <v>0.1767612699662788</v>
       </c>
       <c r="S5" t="n">
-        <v>6.487163228818815e-08</v>
+        <v>0.1767612699662788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.56652179813175</v>
+        <v>11.06599075788073</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.238899080893091, 16.8941445153704]</t>
+          <t>[6.210777932040667, 15.921203583720793]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.237367997068532e-07</v>
+        <v>3.546975183543744e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>5.237367997068532e-07</v>
+        <v>3.546975183543744e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>9.677957957958188</v>
+        <v>8.828428428428641</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.660100100100259</v>
+        <v>-4.128588588588686</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.69581581581612</v>
+        <v>21.78544544544597</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3771003798725021</v>
+        <v>0.2838483160341847</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3771003798725021</v>
+        <v>0.2838483160341847</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>5.364018756012653</v>
+        <v>5.023628006202459</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.098815646394037, 14.826853158419343]</t>
+          <t>[-2.590442874308838, 12.637698886713757]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2596190439491675</v>
+        <v>0.1905901417049194</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2596190439491675</v>
+        <v>0.1905901417049194</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.056684744033312</v>
+        <v>3.075553168379197</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-6.169974761104277, 0.05660527303765406]</t>
+          <t>[-0.00628947478196018, 6.157395811540355]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05413159631972397</v>
+        <v>0.05044972134918879</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05413159631972397</v>
+        <v>0.05044972134918879</v>
       </c>
       <c r="T6" t="n">
-        <v>13.4239734889609</v>
+        <v>11.91430628527323</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.215880327175253, 18.63206665074655]</t>
+          <t>[7.6036099272324655, 16.225002643314003]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.851388203608309e-06</v>
+        <v>1.366306208394619e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.851388203608309e-06</v>
+        <v>1.366306208394619e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>12.64378378378409</v>
+        <v>13.24264264264296</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2341441441441479</v>
+        <v>0.5193193193193331</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.52171171171232</v>
+        <v>25.96596596596658</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4295349290348131</v>
+        <v>0.6108354697201858</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4295349290348131</v>
+        <v>0.6108354697201858</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.375674926031047</v>
+        <v>2.896025362599385</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.695237835377536, 13.446587687439628]</t>
+          <t>[-4.996976127962782, 10.789026853161552]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3364562214721061</v>
+        <v>0.4637469558453016</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3364562214721061</v>
+        <v>0.4637469558453016</v>
       </c>
       <c r="P7" t="n">
-        <v>2.685605731897581</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.4339737599553466, 5.805185223750509]</t>
+          <t>[-0.4780000834290776, 5.7485799507128545]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.08978010843072726</v>
+        <v>0.09511484526381264</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08978010843072726</v>
+        <v>0.09511484526381264</v>
       </c>
       <c r="T7" t="n">
-        <v>13.3440619336396</v>
+        <v>11.9437830173129</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.58735822443446, 18.10076564284475]</t>
+          <t>[7.790155524879708, 16.097410509746094]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.029161593946171e-06</v>
+        <v>6.360410980121856e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.029161593946171e-06</v>
+        <v>6.360410980121856e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>14.88116116116152</v>
+        <v>15.06026026026062</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.977217217217264</v>
+        <v>2.207107107107161</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.78510510510577</v>
+        <v>27.91341341341408</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.94000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4578176744023924</v>
+        <v>0.2189802336563327</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4578176744023924</v>
+        <v>0.2189802336563327</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.369074292875869</v>
+        <v>5.227256193468462</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.298696830459594, 14.036845416211332]</t>
+          <t>[-3.1255485184554432, 13.580060905392369]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3675580774203018</v>
+        <v>0.2140063864311463</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3675580774203018</v>
+        <v>0.2140063864311463</v>
       </c>
       <c r="P8" t="n">
-        <v>2.723342580589351</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.40881586082749877, 5.855501022006201]</t>
+          <t>[-0.8302106712189241, 5.421527262050855]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.08672242495145355</v>
+        <v>0.1460615176237743</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08672242495145355</v>
+        <v>0.1460615176237743</v>
       </c>
       <c r="T8" t="n">
-        <v>13.45925770166922</v>
+        <v>11.1612538213657</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.534808535251624, 18.383706868086808]</t>
+          <t>[6.829458134201833, 15.49304950852957]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.685508316251472e-06</v>
+        <v>4.882091892977058e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.685508316251472e-06</v>
+        <v>4.882091892977058e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>14.72506506506542</v>
+        <v>16.46242242242281</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.769089089089134</v>
+        <v>3.557337337337419</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.68104104104169</v>
+        <v>29.3675075075082</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1617660496307021</v>
+        <v>0.4667374167251064</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1617660496307021</v>
+        <v>0.4667374167251064</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.111705916867909</v>
+        <v>4.239258455598003</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.991519845642105, 14.214931679377923]</t>
+          <t>[-4.506003434490321, 12.984520345686327]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1357327523632554</v>
+        <v>0.3341181263309694</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1357327523632554</v>
+        <v>0.3341181263309694</v>
       </c>
       <c r="P9" t="n">
-        <v>1.427710775505271</v>
+        <v>1.402552876377424</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.861658045128733, 3.717079596139275]</t>
+          <t>[-1.6981581911296182, 4.503263943884466]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2155807568725971</v>
+        <v>0.3671264098579048</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2155807568725971</v>
+        <v>0.3671264098579048</v>
       </c>
       <c r="T9" t="n">
-        <v>15.01574619787992</v>
+        <v>12.66177336286098</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[10.560997279713861, 19.47049511604598]</t>
+          <t>[7.826756184054741, 17.496790541667224]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.095956186387582e-08</v>
+        <v>3.669728328770105e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>2.095956186387582e-08</v>
+        <v>3.669728328770105e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>18.4692692692695</v>
+        <v>18.54166166166189</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.76096096096108</v>
+        <v>6.761971971972059</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.17757757757792</v>
+        <v>30.32135135135172</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1423436750893533</v>
+        <v>0.07697959238914587</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1423436750893533</v>
+        <v>0.07697959238914587</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.830963001689888</v>
+        <v>6.291772515962791</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.189852889549062, 13.851778892928838]</t>
+          <t>[-0.5694210508010507, 13.152966082726632]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1500878745694232</v>
+        <v>0.071336077127794</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1500878745694232</v>
+        <v>0.071336077127794</v>
       </c>
       <c r="P10" t="n">
-        <v>2.283079345852042</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.7987632973091161, 5.3649219890132]</t>
+          <t>[0.22013161736865428, 3.1887637144545042]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1426559752041294</v>
+        <v>0.02536234075369248</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1426559752041294</v>
+        <v>0.02536234075369248</v>
       </c>
       <c r="T10" t="n">
-        <v>11.66064321722349</v>
+        <v>10.19022805002622</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.548348878714288, 15.772937555732687]</t>
+          <t>[6.360461130006028, 14.019994970046406]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.36583017971293e-07</v>
+        <v>2.758921593848385e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>8.36583017971293e-07</v>
+        <v>2.758921593848385e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>15.21561561561581</v>
+        <v>17.39475475475497</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.492892892892938</v>
+        <v>11.75579579579594</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.93833833833867</v>
+        <v>23.03371371371399</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06918484791380508</v>
+        <v>0.3458193136358736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06918484791380508</v>
+        <v>0.3458193136358736</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.720715015783436</v>
+        <v>4.352393953519767</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.9756989038542203, 16.417128935421093]</t>
+          <t>[-3.6389383862338125, 12.343726293273347]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.08048937885531782</v>
+        <v>0.2784944753076253</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08048937885531782</v>
+        <v>0.2784944753076253</v>
       </c>
       <c r="P11" t="n">
-        <v>2.459184639746965</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.3018947895341544, 5.220264069028084]</t>
+          <t>[-0.6037895790683088, 5.673106253329316]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.07955268140690697</v>
+        <v>0.1108010663169583</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07955268140690697</v>
+        <v>0.1108010663169583</v>
       </c>
       <c r="T11" t="n">
-        <v>14.690676985093</v>
+        <v>10.58113993005125</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.07331660579623, 19.308037364389776]</t>
+          <t>[6.379372806885689, 14.782907053216805]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.723257167135955e-08</v>
+        <v>7.234584296078594e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>7.723257167135955e-08</v>
+        <v>7.234584296078594e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>14.54574574574593</v>
+        <v>14.24076076076093</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.043143143143196</v>
+        <v>2.317707707707735</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.04834834834866</v>
+        <v>26.16381381381414</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2467553678210851</v>
+        <v>0.07184524143499782</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2467553678210851</v>
+        <v>0.07184524143499782</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.331573838542631</v>
+        <v>7.298736684058111</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.487706005034365, 16.150853682119628]</t>
+          <t>[-0.9416765566435998, 15.539149924759823]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.2006576783646885</v>
+        <v>0.08117729957649855</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2006576783646885</v>
+        <v>0.08117729957649855</v>
       </c>
       <c r="P12" t="n">
-        <v>2.673026782333658</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.44655270951926873, 5.792606274186586]</t>
+          <t>[0.2327105669325773, 3.70450064657535]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.09124593069532816</v>
+        <v>0.02713493916824072</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09124593069532816</v>
+        <v>0.02713493916824072</v>
       </c>
       <c r="T12" t="n">
-        <v>13.10626876755355</v>
+        <v>13.4927240817169</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[7.795430865578904, 18.4171066695282]</t>
+          <t>[9.104390399764252, 17.881057763669556]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.014881672944945e-05</v>
+        <v>1.614933606841618e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.014881672944945e-05</v>
+        <v>1.614933606841618e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>13.7323323323325</v>
+        <v>16.39121121121141</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.866066066066089</v>
+        <v>9.796496496496621</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.59859859859891</v>
+        <v>22.9859259259262</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1720133354592219</v>
+        <v>0.29274609473529</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1720133354592219</v>
+        <v>0.29274609473529</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>6.200054594464074</v>
+        <v>5.236379767859688</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-2.541621438356385, 14.941730627284533]</t>
+          <t>[-2.8863280875658397, 13.359087623285216]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1600503822395907</v>
+        <v>0.2007612446418108</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1600503822395907</v>
+        <v>0.2007612446418108</v>
       </c>
       <c r="P13" t="n">
-        <v>2.333395144107734</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.798763297309117, 5.465553585524585]</t>
+          <t>[-6.037895790683087, 0.22642109215061623]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1404778346629785</v>
+        <v>0.06820997923951255</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1404778346629785</v>
+        <v>0.06820997923951255</v>
       </c>
       <c r="T13" t="n">
-        <v>15.24601560595342</v>
+        <v>12.38204292145634</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[10.638187017146791, 19.85384419476005]</t>
+          <t>[7.680417898685671, 17.083667944227013]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.213746868624412e-08</v>
+        <v>3.319259339162883e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>3.213746868624412e-08</v>
+        <v>3.319259339162883e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.02422422422441</v>
+        <v>11.03897897897911</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.110110110110147</v>
+        <v>-0.8601801801801923</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.93833833833867</v>
+        <v>22.93813813813842</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9000000000003</v>
+        <v>23.87000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5108404923687053</v>
+        <v>0.3476370374218809</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5108404923687053</v>
+        <v>0.3476370374218809</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.659067213076744</v>
+        <v>5.357061652928737</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.054185812435488, 11.372320238588976]</t>
+          <t>[-3.6066208004599485, 14.320744106317422]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3444477344878374</v>
+        <v>0.2349955806231492</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3444477344878374</v>
+        <v>0.2349955806231492</v>
       </c>
       <c r="P14" t="n">
-        <v>1.578658170272348</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.553500271144503, 4.710816611689199]</t>
+          <t>[-1.484316048542925, 4.742263985599007]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.3154660619721124</v>
+        <v>0.2975800960551387</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3154660619721124</v>
+        <v>0.2975800960551387</v>
       </c>
       <c r="T14" t="n">
-        <v>11.41607621422065</v>
+        <v>13.89610023475901</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.9654279629558715, 15.86672446548543]</t>
+          <t>[8.726977800015657, 19.06522266950236]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.278300961419902e-06</v>
+        <v>2.288339093547975e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.278300961419902e-06</v>
+        <v>2.288339093547975e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>17.89509509509532</v>
+        <v>17.6814814814817</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.980980980981053</v>
+        <v>5.854004004004073</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.80920920920958</v>
+        <v>29.50895895895932</v>
       </c>
     </row>
   </sheetData>
